--- a/exemples/cryptoAerodromeBase.xlsx
+++ b/exemples/cryptoAerodromeBase.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +134,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -181,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,24 +271,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,7 +344,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -476,7 +477,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:C11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,7 +584,7 @@
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -614,10 +615,10 @@
         <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45962</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
@@ -637,6 +638,8 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>

--- a/exemples/cryptoAerodromeBase.xlsx
+++ b/exemples/cryptoAerodromeBase.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">décimale token out</t>
   </si>
   <si>
-    <t xml:space="preserve">aero</t>
+    <t xml:space="preserve">aerodrome</t>
   </si>
   <si>
     <t xml:space="preserve">0x940181a94A35A4569E4529A3CDfB74e38FD98631</t>
@@ -135,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,12 +176,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +241,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,24 +269,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,7 +334,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -474,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="A5:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,8 +475,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.25"/>
@@ -555,8 +544,8 @@
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+      <c r="D2" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -570,85 +559,84 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="K2" s="5" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
-      </c>
-      <c r="L2" s="6" t="n">
+        <v>1.2456</v>
+      </c>
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
-      </c>
-      <c r="M2" s="7" t="n">
+        <v>61.47</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>1E-011</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>45919</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="12" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>61.47</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45971</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-    </row>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoAerodromeBase.xlsx
+++ b/exemples/cryptoAerodromeBase.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:N9999"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="A4:D31"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="18" t="inlineStr">
         <is>
@@ -749,30 +749,132 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="12.75" customHeight="1" s="15">
+      <c r="A14" s="14" t="n">
         <v>0.7616000000000001</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>19:00:24</t>
         </is>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="15" ht="12.75" customHeight="1" s="15">
+      <c r="A15" s="14" t="n">
+        <v>0.7309</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>19:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="15">
+      <c r="A16" s="14" t="n">
+        <v>0.7214</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>20:14:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="15">
+      <c r="A17" s="14" t="n">
+        <v>0.7184</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>01:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="15">
+      <c r="A18" s="14" t="n">
+        <v>0.6979</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>07:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="n">
+        <v>0.6558</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="24" t="inlineStr">
+        <is>
+          <t>14:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.6427</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07:01:01</t>
+        </is>
+      </c>
+    </row>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
